--- a/code/PhaseI/data/iccps/Feeder7.xlsx
+++ b/code/PhaseI/data/iccps/Feeder7.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Consumer_7_1</t>
   </si>
@@ -52,6 +52,12 @@
   </si>
   <si>
     <t>Time</t>
+  </si>
+  <si>
+    <t>NetProduction_7</t>
+  </si>
+  <si>
+    <t>NetConsumption_7</t>
   </si>
 </sst>
 </file>
@@ -370,10 +376,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K97"/>
+  <dimension ref="A1:M97"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -381,9 +387,11 @@
     <col min="1" max="1" width="30.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="11" width="14.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>10</v>
       </c>
@@ -417,8 +425,14 @@
       <c r="K1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -452,8 +466,15 @@
       <c r="K2">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <f>SUM(C2:K2)</f>
+        <v>6.4999999999999991</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>1.0416666666666666E-2</v>
       </c>
@@ -487,8 +508,15 @@
       <c r="K3">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ref="M3:M66" si="0">SUM(C3:K3)</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>2.0833333333333332E-2</v>
       </c>
@@ -522,8 +550,15 @@
       <c r="K4">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <f t="shared" si="0"/>
+        <v>5.5000000000000009</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3.125E-2</v>
       </c>
@@ -557,8 +592,15 @@
       <c r="K5">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>4.1666666666666664E-2</v>
       </c>
@@ -592,8 +634,15 @@
       <c r="K6">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <f t="shared" si="0"/>
+        <v>4.7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>5.2083333333333336E-2</v>
       </c>
@@ -627,8 +676,15 @@
       <c r="K7">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>6.25E-2</v>
       </c>
@@ -662,8 +718,15 @@
       <c r="K8">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>7.2916666666666671E-2</v>
       </c>
@@ -697,8 +760,15 @@
       <c r="K9">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>8.3333333333333329E-2</v>
       </c>
@@ -732,8 +802,15 @@
       <c r="K10">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>9.375E-2</v>
       </c>
@@ -767,8 +844,15 @@
       <c r="K11">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="0"/>
+        <v>4.4000000000000004</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>0.10416666666666667</v>
       </c>
@@ -802,8 +886,15 @@
       <c r="K12">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>0.11458333333333333</v>
       </c>
@@ -837,8 +928,15 @@
       <c r="K13">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>0.125</v>
       </c>
@@ -872,8 +970,15 @@
       <c r="K14">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>0.13541666666666666</v>
       </c>
@@ -907,8 +1012,15 @@
       <c r="K15">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>0.14583333333333334</v>
       </c>
@@ -942,8 +1054,15 @@
       <c r="K16">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>3.9000000000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>0.15625</v>
       </c>
@@ -977,8 +1096,15 @@
       <c r="K17">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>0.16666666666666666</v>
       </c>
@@ -1012,8 +1138,15 @@
       <c r="K18">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <f t="shared" si="0"/>
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>0.17708333333333334</v>
       </c>
@@ -1047,8 +1180,15 @@
       <c r="K19">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <f t="shared" si="0"/>
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>0.1875</v>
       </c>
@@ -1082,8 +1222,15 @@
       <c r="K20">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <f t="shared" si="0"/>
+        <v>4.8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>0.19791666666666666</v>
       </c>
@@ -1117,8 +1264,15 @@
       <c r="K21">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <f t="shared" si="0"/>
+        <v>5.0999999999999996</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>0.20833333333333334</v>
       </c>
@@ -1152,8 +1306,15 @@
       <c r="K22">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>0.21875</v>
       </c>
@@ -1187,8 +1348,15 @@
       <c r="K23">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <f t="shared" si="0"/>
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>0.22916666666666666</v>
       </c>
@@ -1222,8 +1390,15 @@
       <c r="K24">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <f t="shared" si="0"/>
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>0.23958333333333334</v>
       </c>
@@ -1257,8 +1432,15 @@
       <c r="K25">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <f t="shared" si="0"/>
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>0.25</v>
       </c>
@@ -1292,8 +1474,15 @@
       <c r="K26">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <f t="shared" si="0"/>
+        <v>6.1000000000000005</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>0.26041666666666669</v>
       </c>
@@ -1327,8 +1516,15 @@
       <c r="K27">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>0</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="0"/>
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>0.27083333333333331</v>
       </c>
@@ -1362,8 +1558,15 @@
       <c r="K28">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>0.1</v>
+      </c>
+      <c r="M28">
+        <f t="shared" si="0"/>
+        <v>7.3000000000000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>0.28125</v>
       </c>
@@ -1397,8 +1600,15 @@
       <c r="K29">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>0.4</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="0"/>
+        <v>7.9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>0.29166666666666669</v>
       </c>
@@ -1432,8 +1642,15 @@
       <c r="K30">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>0.9</v>
+      </c>
+      <c r="M30">
+        <f t="shared" si="0"/>
+        <v>8.6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>0.30208333333333331</v>
       </c>
@@ -1467,8 +1684,15 @@
       <c r="K31">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>1.6</v>
+      </c>
+      <c r="M31">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>0.3125</v>
       </c>
@@ -1502,8 +1726,15 @@
       <c r="K32">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M32">
+        <f t="shared" si="0"/>
+        <v>9.6999999999999993</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>0.32291666666666669</v>
       </c>
@@ -1537,8 +1768,15 @@
       <c r="K33">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>3.2</v>
+      </c>
+      <c r="M33">
+        <f t="shared" si="0"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="1">
         <v>0.33333333333333331</v>
       </c>
@@ -1572,8 +1810,15 @@
       <c r="K34">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>4.2</v>
+      </c>
+      <c r="M34">
+        <f t="shared" si="0"/>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="1">
         <v>0.34375</v>
       </c>
@@ -1607,8 +1852,15 @@
       <c r="K35">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>5.3</v>
+      </c>
+      <c r="M35">
+        <f t="shared" si="0"/>
+        <v>11.899999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="1">
         <v>0.35416666666666669</v>
       </c>
@@ -1642,8 +1894,15 @@
       <c r="K36">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>6.5</v>
+      </c>
+      <c r="M36">
+        <f t="shared" si="0"/>
+        <v>12.900000000000002</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" s="1">
         <v>0.36458333333333331</v>
       </c>
@@ -1677,8 +1936,15 @@
       <c r="K37">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>7.8</v>
+      </c>
+      <c r="M37">
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" s="1">
         <v>0.375</v>
       </c>
@@ -1712,8 +1978,15 @@
       <c r="K38">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="M38">
+        <f t="shared" si="0"/>
+        <v>13.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" s="1">
         <v>0.38541666666666669</v>
       </c>
@@ -1747,8 +2020,15 @@
       <c r="K39">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>10.6</v>
+      </c>
+      <c r="M39">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" s="1">
         <v>0.39583333333333331</v>
       </c>
@@ -1782,8 +2062,15 @@
       <c r="K40">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>12</v>
+      </c>
+      <c r="M40">
+        <f t="shared" si="0"/>
+        <v>14.000000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" s="1">
         <v>0.40625</v>
       </c>
@@ -1817,8 +2104,15 @@
       <c r="K41">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>13.5</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>14.000000000000002</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" s="1">
         <v>0.41666666666666669</v>
       </c>
@@ -1852,8 +2146,15 @@
       <c r="K42">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>15</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="0"/>
+        <v>13.7</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" s="1">
         <v>0.42708333333333331</v>
       </c>
@@ -1887,8 +2188,15 @@
       <c r="K43">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>16.5</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="0"/>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" s="1">
         <v>0.4375</v>
       </c>
@@ -1922,8 +2230,15 @@
       <c r="K44">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>18</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="0"/>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" s="1">
         <v>0.44791666666666669</v>
       </c>
@@ -1957,8 +2272,15 @@
       <c r="K45">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>19.5</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="0"/>
+        <v>13.899999999999999</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" s="1">
         <v>0.45833333333333331</v>
       </c>
@@ -1992,8 +2314,15 @@
       <c r="K46">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>20.9</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" s="1">
         <v>0.46875</v>
       </c>
@@ -2027,8 +2356,15 @@
       <c r="K47">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>22.2</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="0"/>
+        <v>14.099999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" s="1">
         <v>0.47916666666666669</v>
       </c>
@@ -2062,8 +2398,15 @@
       <c r="K48">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>23.5</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" s="1">
         <v>0.48958333333333331</v>
       </c>
@@ -2097,8 +2440,15 @@
       <c r="K49">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>24.7</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" s="1">
         <v>0.5</v>
       </c>
@@ -2132,8 +2482,15 @@
       <c r="K50">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>25.8</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="0"/>
+        <v>14.6</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" s="1">
         <v>0.51041666666666663</v>
       </c>
@@ -2167,8 +2524,15 @@
       <c r="K51">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>26.8</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" s="1">
         <v>0.52083333333333337</v>
       </c>
@@ -2202,8 +2566,15 @@
       <c r="K52">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>27.7</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="0"/>
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" s="1">
         <v>0.53125</v>
       </c>
@@ -2237,8 +2608,15 @@
       <c r="K53">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>28.5</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="0"/>
+        <v>14.3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" s="1">
         <v>0.54166666666666663</v>
       </c>
@@ -2272,8 +2650,15 @@
       <c r="K54">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>29.1</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="0"/>
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" s="1">
         <v>0.55208333333333337</v>
       </c>
@@ -2307,8 +2692,15 @@
       <c r="K55">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>29.6</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="0"/>
+        <v>13.3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" s="1">
         <v>0.5625</v>
       </c>
@@ -2342,8 +2734,15 @@
       <c r="K56">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>29.9</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="0"/>
+        <v>13.000000000000002</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" s="1">
         <v>0.57291666666666663</v>
       </c>
@@ -2377,8 +2776,15 @@
       <c r="K57">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>30.2</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="0"/>
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" s="1">
         <v>0.58333333333333337</v>
       </c>
@@ -2412,8 +2818,15 @@
       <c r="K58">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>30.2</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="0"/>
+        <v>12.2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" s="1">
         <v>0.59375</v>
       </c>
@@ -2447,8 +2860,15 @@
       <c r="K59">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>30.1</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="0"/>
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" s="1">
         <v>0.60416666666666663</v>
       </c>
@@ -2482,8 +2902,15 @@
       <c r="K60">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>29.9</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="0"/>
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" s="1">
         <v>0.61458333333333337</v>
       </c>
@@ -2517,8 +2944,15 @@
       <c r="K61">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>29.5</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" s="1">
         <v>0.625</v>
       </c>
@@ -2552,8 +2986,15 @@
       <c r="K62">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>29</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="0"/>
+        <v>11.899999999999999</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" s="1">
         <v>0.63541666666666663</v>
       </c>
@@ -2587,8 +3028,15 @@
       <c r="K63">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>28.4</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="0"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" s="1">
         <v>0.64583333333333337</v>
       </c>
@@ -2622,8 +3070,15 @@
       <c r="K64">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>27.6</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="0"/>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" s="1">
         <v>0.65625</v>
       </c>
@@ -2657,8 +3112,15 @@
       <c r="K65">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>26.7</v>
+      </c>
+      <c r="M65">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" s="1">
         <v>0.66666666666666663</v>
       </c>
@@ -2692,8 +3154,15 @@
       <c r="K66">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>25.7</v>
+      </c>
+      <c r="M66">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" s="1">
         <v>0.67708333333333337</v>
       </c>
@@ -2727,8 +3196,15 @@
       <c r="K67">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>24.5</v>
+      </c>
+      <c r="M67">
+        <f t="shared" ref="M67:M97" si="1">SUM(C67:K67)</f>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" s="1">
         <v>0.6875</v>
       </c>
@@ -2762,8 +3238,15 @@
       <c r="K68">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>23.3</v>
+      </c>
+      <c r="M68">
+        <f t="shared" si="1"/>
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A69" s="1">
         <v>0.69791666666666663</v>
       </c>
@@ -2797,8 +3280,15 @@
       <c r="K69">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>22</v>
+      </c>
+      <c r="M69">
+        <f t="shared" si="1"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A70" s="1">
         <v>0.70833333333333337</v>
       </c>
@@ -2832,8 +3322,15 @@
       <c r="K70">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>20.7</v>
+      </c>
+      <c r="M70">
+        <f t="shared" si="1"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1">
         <v>0.71875</v>
       </c>
@@ -2867,8 +3364,15 @@
       <c r="K71">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>19.3</v>
+      </c>
+      <c r="M71">
+        <f t="shared" si="1"/>
+        <v>11.7</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A72" s="1">
         <v>0.72916666666666663</v>
       </c>
@@ -2902,8 +3406,15 @@
       <c r="K72">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>17.8</v>
+      </c>
+      <c r="M72">
+        <f t="shared" si="1"/>
+        <v>12.1</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A73" s="1">
         <v>0.73958333333333337</v>
       </c>
@@ -2937,8 +3448,15 @@
       <c r="K73">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>16.3</v>
+      </c>
+      <c r="M73">
+        <f t="shared" si="1"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A74" s="1">
         <v>0.75</v>
       </c>
@@ -2972,8 +3490,15 @@
       <c r="K74">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>14.8</v>
+      </c>
+      <c r="M74">
+        <f t="shared" si="1"/>
+        <v>11.8</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A75" s="1">
         <v>0.76041666666666663</v>
       </c>
@@ -3007,8 +3532,15 @@
       <c r="K75">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>13.3</v>
+      </c>
+      <c r="M75">
+        <f t="shared" si="1"/>
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A76" s="1">
         <v>0.77083333333333337</v>
       </c>
@@ -3042,8 +3574,15 @@
       <c r="K76">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>11.8</v>
+      </c>
+      <c r="M76">
+        <f t="shared" si="1"/>
+        <v>11.3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A77" s="1">
         <v>0.78125</v>
       </c>
@@ -3077,8 +3616,15 @@
       <c r="K77">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>10.4</v>
+      </c>
+      <c r="M77">
+        <f t="shared" si="1"/>
+        <v>11.1</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A78" s="1">
         <v>0.79166666666666663</v>
       </c>
@@ -3112,8 +3658,15 @@
       <c r="K78">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>9</v>
+      </c>
+      <c r="M78">
+        <f t="shared" si="1"/>
+        <v>10.700000000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A79" s="1">
         <v>0.80208333333333337</v>
       </c>
@@ -3147,8 +3700,15 @@
       <c r="K79">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>7.6</v>
+      </c>
+      <c r="M79">
+        <f t="shared" si="1"/>
+        <v>10.8</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A80" s="1">
         <v>0.8125</v>
       </c>
@@ -3182,8 +3742,15 @@
       <c r="K80">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>6.4</v>
+      </c>
+      <c r="M80">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A81" s="1">
         <v>0.82291666666666663</v>
       </c>
@@ -3217,8 +3784,15 @@
       <c r="K81">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>5.2</v>
+      </c>
+      <c r="M81">
+        <f t="shared" si="1"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A82" s="1">
         <v>0.83333333333333337</v>
       </c>
@@ -3252,8 +3826,15 @@
       <c r="K82">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="M82">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A83" s="1">
         <v>0.84375</v>
       </c>
@@ -3287,8 +3868,15 @@
       <c r="K83">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>3.1</v>
+      </c>
+      <c r="M83">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A84" s="1">
         <v>0.85416666666666663</v>
       </c>
@@ -3322,8 +3910,15 @@
       <c r="K84">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="M84">
+        <f t="shared" si="1"/>
+        <v>10.3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A85" s="1">
         <v>0.86458333333333337</v>
       </c>
@@ -3357,8 +3952,15 @@
       <c r="K85">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>1.4</v>
+      </c>
+      <c r="M85">
+        <f t="shared" si="1"/>
+        <v>10.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A86" s="1">
         <v>0.875</v>
       </c>
@@ -3392,8 +3994,15 @@
       <c r="K86">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>0.8</v>
+      </c>
+      <c r="M86">
+        <f t="shared" si="1"/>
+        <v>10.000000000000002</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A87" s="1">
         <v>0.88541666666666663</v>
       </c>
@@ -3427,8 +4036,15 @@
       <c r="K87">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>0.3</v>
+      </c>
+      <c r="M87">
+        <f t="shared" si="1"/>
+        <v>9.8000000000000007</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A88" s="1">
         <v>0.89583333333333337</v>
       </c>
@@ -3462,8 +4078,15 @@
       <c r="K88">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>0</v>
+      </c>
+      <c r="M88">
+        <f t="shared" si="1"/>
+        <v>9.7000000000000011</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A89" s="1">
         <v>0.90625</v>
       </c>
@@ -3497,8 +4120,15 @@
       <c r="K89">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>0</v>
+      </c>
+      <c r="M89">
+        <f t="shared" si="1"/>
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A90" s="1">
         <v>0.91666666666666663</v>
       </c>
@@ -3532,8 +4162,15 @@
       <c r="K90">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>0</v>
+      </c>
+      <c r="M90">
+        <f t="shared" si="1"/>
+        <v>9.5</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A91" s="1">
         <v>0.92708333333333337</v>
       </c>
@@ -3567,8 +4204,15 @@
       <c r="K91">
         <v>0.6</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>0</v>
+      </c>
+      <c r="M91">
+        <f t="shared" si="1"/>
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A92" s="1">
         <v>0.9375</v>
       </c>
@@ -3602,8 +4246,15 @@
       <c r="K92">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>0</v>
+      </c>
+      <c r="M92">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A93" s="1">
         <v>0.94791666666666663</v>
       </c>
@@ -3637,8 +4288,15 @@
       <c r="K93">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>0</v>
+      </c>
+      <c r="M93">
+        <f t="shared" si="1"/>
+        <v>8.6999999999999993</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A94" s="1">
         <v>0.95833333333333337</v>
       </c>
@@ -3672,8 +4330,15 @@
       <c r="K94">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>0</v>
+      </c>
+      <c r="M94">
+        <f t="shared" si="1"/>
+        <v>8.1999999999999993</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A95" s="1">
         <v>0.96875</v>
       </c>
@@ -3707,8 +4372,15 @@
       <c r="K95">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>0</v>
+      </c>
+      <c r="M95">
+        <f t="shared" si="1"/>
+        <v>7.8000000000000007</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A96" s="1">
         <v>0.97916666666666663</v>
       </c>
@@ -3742,8 +4414,15 @@
       <c r="K96">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>0</v>
+      </c>
+      <c r="M96">
+        <f t="shared" si="1"/>
+        <v>7.3000000000000007</v>
+      </c>
+    </row>
+    <row r="97" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A97" s="1">
         <v>0.98958333333333337</v>
       </c>
@@ -3776,6 +4455,13 @@
       </c>
       <c r="K97">
         <v>0.4</v>
+      </c>
+      <c r="L97">
+        <v>0</v>
+      </c>
+      <c r="M97">
+        <f t="shared" si="1"/>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
